--- a/Excel to PDF/Workbook to PDF/NET Standard/Workbook to PDF/Workbook to PDF/Data/InputTemplate.xlsx
+++ b/Excel to PDF/Workbook to PDF/NET Standard/Workbook to PDF/Workbook to PDF/Data/InputTemplate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XlsIO - GitHub Samples\WF-62428-GitHubSamples-Phase15\Excel to PDF\Workbook to PDF\NET Standard\Workbook to PDF\Workbook to PDF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0872F4F5-C55B-4021-BE66-6D6696B4A5EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C51D2-63B6-4EEC-86B3-5289586C8117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
@@ -54,7 +55,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="101">
+  <si>
+    <t>3 Self-Promotion</t>
+  </si>
+  <si>
+    <t>Tower of Babel</t>
+  </si>
+  <si>
+    <t>Self (Tower of Babel)</t>
+  </si>
+  <si>
+    <t>Merit</t>
+  </si>
+  <si>
+    <t>The Great Society</t>
+  </si>
+  <si>
+    <t>4D Sales Material</t>
+  </si>
+  <si>
+    <t>Sandstrom Partners</t>
+  </si>
+  <si>
+    <t>Cooper Spirits International</t>
+  </si>
+  <si>
+    <t>Rosey</t>
+  </si>
+  <si>
+    <t>5C Out of Home</t>
+  </si>
+  <si>
+    <t>Rogue Design Group</t>
+  </si>
+  <si>
+    <t>The Children's Gym</t>
+  </si>
+  <si>
+    <t>9A Television</t>
+  </si>
+  <si>
+    <t>Brooks Running</t>
+  </si>
+  <si>
+    <t>MathDept</t>
+  </si>
+  <si>
+    <t>MFNW / Willamette Week</t>
+  </si>
+  <si>
+    <t>Excellence</t>
+  </si>
+  <si>
+    <t>9B Television</t>
+  </si>
+  <si>
+    <t>Wieden+Kennedy</t>
+  </si>
+  <si>
+    <t>CareerBuilder.com</t>
+  </si>
+  <si>
+    <t>Old Spice</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>9C Television</t>
+  </si>
+  <si>
+    <t>9D Television</t>
+  </si>
+  <si>
+    <t>Borders Perrin Norrander</t>
+  </si>
+  <si>
+    <t>Oregon Lottery</t>
+  </si>
+  <si>
+    <t>9H Television</t>
+  </si>
+  <si>
+    <t>Bent Image Lab</t>
+  </si>
+  <si>
+    <t>Coca Cola Company</t>
+  </si>
+  <si>
+    <t>11A Interactive</t>
+  </si>
+  <si>
+    <t>Summit Projects</t>
+  </si>
+  <si>
+    <t>Nike, Inc. | Nike Golf</t>
+  </si>
+  <si>
+    <t>Nike Foundation</t>
+  </si>
+  <si>
+    <t>11D Interactive</t>
+  </si>
+  <si>
+    <t>BC Dairy Foundation</t>
+  </si>
+  <si>
+    <t>11E Interactive</t>
+  </si>
+  <si>
+    <t>11J Interactive</t>
+  </si>
+  <si>
+    <t>Leopold Ketel &amp; Partners</t>
+  </si>
+  <si>
+    <t>Planned Parenthood</t>
+  </si>
+  <si>
+    <t>11L Interactive</t>
+  </si>
+  <si>
+    <t>Second Story Interactive Studios</t>
+  </si>
+  <si>
+    <t>Portland Art Museum</t>
+  </si>
+  <si>
+    <t>Columbia Sportswear Company</t>
+  </si>
+  <si>
+    <t>Columbia Sportswear</t>
+  </si>
+  <si>
+    <t>11N Interactive</t>
+  </si>
+  <si>
+    <t>Pop Art, Inc.</t>
+  </si>
+  <si>
+    <t>Oregon State Lottery</t>
+  </si>
+  <si>
+    <t>12A Public Service Division</t>
+  </si>
+  <si>
+    <t>Willamette Week</t>
+  </si>
+  <si>
+    <t>13A Corporate Identity</t>
+  </si>
+  <si>
+    <t>Sockeye Creative</t>
+  </si>
+  <si>
+    <t>Workbench Law</t>
+  </si>
+  <si>
+    <t>13B Corporate Identity</t>
+  </si>
+  <si>
+    <t>Joanna Priestley</t>
+  </si>
+  <si>
+    <t>David Maddocks Co./Sandstrom Partners</t>
+  </si>
+  <si>
+    <t>14F Company Literature</t>
+  </si>
+  <si>
+    <t>Image Pressworks</t>
+  </si>
+  <si>
+    <t>15B Poster</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>Doug Fir</t>
+  </si>
+  <si>
+    <t>16A Packaging</t>
+  </si>
+  <si>
+    <t>R/West</t>
+  </si>
+  <si>
+    <t>Bridgeport</t>
+  </si>
+  <si>
+    <t>Full Sail Brewing Co.</t>
+  </si>
+  <si>
+    <t>Cranium</t>
+  </si>
+  <si>
+    <t>17A Books</t>
+  </si>
+  <si>
+    <t>Opolis Design</t>
+  </si>
+  <si>
+    <t>20A Misc. Collateral</t>
+  </si>
+  <si>
+    <t>22A Integrated Campaign</t>
+  </si>
+  <si>
+    <t>Best In Show</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Firm Name</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -150,7 +376,7 @@
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -247,6 +473,19 @@
       <name val="Tms Rmn"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -260,6 +499,17 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="14">
@@ -342,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -571,6 +821,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -637,30 +955,33 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="18" fillId="11" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="20" fillId="11" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="20" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="11" borderId="12" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="11" borderId="12" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="11" borderId="12" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="11" borderId="13" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="11" borderId="13" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="12" borderId="14" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,6 +1044,18 @@
     <xf numFmtId="44" fontId="4" fillId="12" borderId="19" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1219,11 +1552,3129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="234" width="9.1796875" style="3" customWidth="1"/>
+    <col min="235" max="235" width="27.7265625" style="3" customWidth="1"/>
+    <col min="236" max="236" width="42.7265625" style="3" customWidth="1"/>
+    <col min="237" max="237" width="40.7265625" style="3" customWidth="1"/>
+    <col min="238" max="238" width="25.7265625" style="3" customWidth="1"/>
+    <col min="239" max="239" width="30.7265625" style="3" customWidth="1"/>
+    <col min="240" max="240" width="15.7265625" style="3" customWidth="1"/>
+    <col min="241" max="241" width="21.453125" style="3" customWidth="1"/>
+    <col min="242" max="242" width="35.7265625" style="3" customWidth="1"/>
+    <col min="243" max="243" width="15.7265625" style="3" customWidth="1"/>
+    <col min="244" max="244" width="20.7265625" style="3" customWidth="1"/>
+    <col min="245" max="245" width="13" style="3" customWidth="1"/>
+    <col min="246" max="246" width="13.453125" style="3" customWidth="1"/>
+    <col min="247" max="247" width="18.26953125" style="3" customWidth="1"/>
+    <col min="248" max="248" width="20.81640625" style="3" customWidth="1"/>
+    <col min="249" max="249" width="22.26953125" style="3" customWidth="1"/>
+    <col min="250" max="250" width="26.453125" style="3" customWidth="1"/>
+    <col min="251" max="251" width="35.7265625" style="3" customWidth="1"/>
+    <col min="252" max="252" width="15.7265625" style="3" customWidth="1"/>
+    <col min="253" max="253" width="14.1796875" style="3" customWidth="1"/>
+    <col min="254" max="254" width="19.7265625" style="3" customWidth="1"/>
+    <col min="255" max="255" width="25.81640625" style="3" customWidth="1"/>
+    <col min="256" max="256" width="24.54296875" style="3" customWidth="1"/>
+    <col min="257" max="257" width="13.1796875" style="3" customWidth="1"/>
+    <col min="258" max="258" width="10.453125" style="3" customWidth="1"/>
+    <col min="259" max="259" width="26.81640625" style="3" customWidth="1"/>
+    <col min="260" max="260" width="22.54296875" style="3" customWidth="1"/>
+    <col min="261" max="490" width="9.1796875" style="3" customWidth="1"/>
+    <col min="491" max="491" width="27.7265625" style="3" customWidth="1"/>
+    <col min="492" max="492" width="42.7265625" style="3" customWidth="1"/>
+    <col min="493" max="493" width="40.7265625" style="3" customWidth="1"/>
+    <col min="494" max="494" width="25.7265625" style="3" customWidth="1"/>
+    <col min="495" max="495" width="30.7265625" style="3" customWidth="1"/>
+    <col min="496" max="496" width="15.7265625" style="3" customWidth="1"/>
+    <col min="497" max="497" width="21.453125" style="3" customWidth="1"/>
+    <col min="498" max="498" width="35.7265625" style="3" customWidth="1"/>
+    <col min="499" max="499" width="15.7265625" style="3" customWidth="1"/>
+    <col min="500" max="500" width="20.7265625" style="3" customWidth="1"/>
+    <col min="501" max="501" width="13" style="3" customWidth="1"/>
+    <col min="502" max="502" width="13.453125" style="3" customWidth="1"/>
+    <col min="503" max="503" width="18.26953125" style="3" customWidth="1"/>
+    <col min="504" max="504" width="20.81640625" style="3" customWidth="1"/>
+    <col min="505" max="505" width="22.26953125" style="3" customWidth="1"/>
+    <col min="506" max="506" width="26.453125" style="3" customWidth="1"/>
+    <col min="507" max="507" width="35.7265625" style="3" customWidth="1"/>
+    <col min="508" max="508" width="15.7265625" style="3" customWidth="1"/>
+    <col min="509" max="509" width="14.1796875" style="3" customWidth="1"/>
+    <col min="510" max="510" width="19.7265625" style="3" customWidth="1"/>
+    <col min="511" max="511" width="25.81640625" style="3" customWidth="1"/>
+    <col min="512" max="512" width="24.54296875" style="3" customWidth="1"/>
+    <col min="513" max="513" width="13.1796875" style="3" customWidth="1"/>
+    <col min="514" max="514" width="10.453125" style="3" customWidth="1"/>
+    <col min="515" max="515" width="26.81640625" style="3" customWidth="1"/>
+    <col min="516" max="516" width="22.54296875" style="3" customWidth="1"/>
+    <col min="517" max="746" width="9.1796875" style="3" customWidth="1"/>
+    <col min="747" max="747" width="27.7265625" style="3" customWidth="1"/>
+    <col min="748" max="748" width="42.7265625" style="3" customWidth="1"/>
+    <col min="749" max="749" width="40.7265625" style="3" customWidth="1"/>
+    <col min="750" max="750" width="25.7265625" style="3" customWidth="1"/>
+    <col min="751" max="751" width="30.7265625" style="3" customWidth="1"/>
+    <col min="752" max="752" width="15.7265625" style="3" customWidth="1"/>
+    <col min="753" max="753" width="21.453125" style="3" customWidth="1"/>
+    <col min="754" max="754" width="35.7265625" style="3" customWidth="1"/>
+    <col min="755" max="755" width="15.7265625" style="3" customWidth="1"/>
+    <col min="756" max="756" width="20.7265625" style="3" customWidth="1"/>
+    <col min="757" max="757" width="13" style="3" customWidth="1"/>
+    <col min="758" max="758" width="13.453125" style="3" customWidth="1"/>
+    <col min="759" max="759" width="18.26953125" style="3" customWidth="1"/>
+    <col min="760" max="760" width="20.81640625" style="3" customWidth="1"/>
+    <col min="761" max="761" width="22.26953125" style="3" customWidth="1"/>
+    <col min="762" max="762" width="26.453125" style="3" customWidth="1"/>
+    <col min="763" max="763" width="35.7265625" style="3" customWidth="1"/>
+    <col min="764" max="764" width="15.7265625" style="3" customWidth="1"/>
+    <col min="765" max="765" width="14.1796875" style="3" customWidth="1"/>
+    <col min="766" max="766" width="19.7265625" style="3" customWidth="1"/>
+    <col min="767" max="767" width="25.81640625" style="3" customWidth="1"/>
+    <col min="768" max="768" width="24.54296875" style="3" customWidth="1"/>
+    <col min="769" max="769" width="13.1796875" style="3" customWidth="1"/>
+    <col min="770" max="770" width="10.453125" style="3" customWidth="1"/>
+    <col min="771" max="771" width="26.81640625" style="3" customWidth="1"/>
+    <col min="772" max="772" width="22.54296875" style="3" customWidth="1"/>
+    <col min="773" max="1002" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1003" max="1003" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1004" max="1004" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1005" max="1005" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1006" max="1006" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1007" max="1007" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1008" max="1008" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1009" max="1009" width="21.453125" style="3" customWidth="1"/>
+    <col min="1010" max="1010" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1011" max="1011" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1012" max="1012" width="20.7265625" style="3" customWidth="1"/>
+    <col min="1013" max="1013" width="13" style="3" customWidth="1"/>
+    <col min="1014" max="1014" width="13.453125" style="3" customWidth="1"/>
+    <col min="1015" max="1015" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1016" max="1016" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1017" max="1017" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1018" max="1018" width="26.453125" style="3" customWidth="1"/>
+    <col min="1019" max="1019" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1020" max="1020" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1021" max="1021" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1022" max="1022" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1023" max="1023" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1024" max="1024" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1025" max="1025" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="10.453125" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1028" max="1028" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1029" max="1258" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1259" max="1259" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1260" max="1260" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1261" max="1261" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1262" max="1262" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1263" max="1263" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1264" max="1264" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1265" max="1265" width="21.453125" style="3" customWidth="1"/>
+    <col min="1266" max="1266" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1267" max="1267" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1268" max="1268" width="20.7265625" style="3" customWidth="1"/>
+    <col min="1269" max="1269" width="13" style="3" customWidth="1"/>
+    <col min="1270" max="1270" width="13.453125" style="3" customWidth="1"/>
+    <col min="1271" max="1271" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1272" max="1272" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1273" max="1273" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1274" max="1274" width="26.453125" style="3" customWidth="1"/>
+    <col min="1275" max="1275" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1276" max="1276" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1277" max="1277" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1278" max="1278" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1279" max="1279" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1280" max="1280" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1281" max="1281" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="10.453125" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1284" max="1284" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1285" max="1514" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1515" max="1515" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1516" max="1516" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1517" max="1517" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1518" max="1518" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1519" max="1519" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1520" max="1520" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1521" max="1521" width="21.453125" style="3" customWidth="1"/>
+    <col min="1522" max="1522" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1523" max="1523" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1524" max="1524" width="20.7265625" style="3" customWidth="1"/>
+    <col min="1525" max="1525" width="13" style="3" customWidth="1"/>
+    <col min="1526" max="1526" width="13.453125" style="3" customWidth="1"/>
+    <col min="1527" max="1527" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1528" max="1528" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1529" max="1529" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1530" max="1530" width="26.453125" style="3" customWidth="1"/>
+    <col min="1531" max="1531" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1532" max="1532" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1533" max="1533" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1534" max="1534" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1535" max="1535" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1536" max="1536" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1537" max="1537" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="10.453125" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1540" max="1540" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1541" max="1770" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1771" max="1771" width="27.7265625" style="3" customWidth="1"/>
+    <col min="1772" max="1772" width="42.7265625" style="3" customWidth="1"/>
+    <col min="1773" max="1773" width="40.7265625" style="3" customWidth="1"/>
+    <col min="1774" max="1774" width="25.7265625" style="3" customWidth="1"/>
+    <col min="1775" max="1775" width="30.7265625" style="3" customWidth="1"/>
+    <col min="1776" max="1776" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1777" max="1777" width="21.453125" style="3" customWidth="1"/>
+    <col min="1778" max="1778" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1779" max="1779" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1780" max="1780" width="20.7265625" style="3" customWidth="1"/>
+    <col min="1781" max="1781" width="13" style="3" customWidth="1"/>
+    <col min="1782" max="1782" width="13.453125" style="3" customWidth="1"/>
+    <col min="1783" max="1783" width="18.26953125" style="3" customWidth="1"/>
+    <col min="1784" max="1784" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1785" max="1785" width="22.26953125" style="3" customWidth="1"/>
+    <col min="1786" max="1786" width="26.453125" style="3" customWidth="1"/>
+    <col min="1787" max="1787" width="35.7265625" style="3" customWidth="1"/>
+    <col min="1788" max="1788" width="15.7265625" style="3" customWidth="1"/>
+    <col min="1789" max="1789" width="14.1796875" style="3" customWidth="1"/>
+    <col min="1790" max="1790" width="19.7265625" style="3" customWidth="1"/>
+    <col min="1791" max="1791" width="25.81640625" style="3" customWidth="1"/>
+    <col min="1792" max="1792" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1793" max="1793" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="10.453125" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="26.81640625" style="3" customWidth="1"/>
+    <col min="1796" max="1796" width="22.54296875" style="3" customWidth="1"/>
+    <col min="1797" max="2026" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2027" max="2027" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2028" max="2028" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2029" max="2029" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2030" max="2030" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2031" max="2031" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2032" max="2032" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2033" max="2033" width="21.453125" style="3" customWidth="1"/>
+    <col min="2034" max="2034" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2035" max="2035" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2036" max="2036" width="20.7265625" style="3" customWidth="1"/>
+    <col min="2037" max="2037" width="13" style="3" customWidth="1"/>
+    <col min="2038" max="2038" width="13.453125" style="3" customWidth="1"/>
+    <col min="2039" max="2039" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2040" max="2040" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2041" max="2041" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2042" max="2042" width="26.453125" style="3" customWidth="1"/>
+    <col min="2043" max="2043" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2044" max="2044" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2045" max="2045" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2046" max="2046" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2047" max="2047" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2048" max="2048" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2049" max="2049" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="10.453125" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2052" max="2052" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2053" max="2282" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2283" max="2283" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2284" max="2284" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2285" max="2285" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2286" max="2286" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2287" max="2287" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2288" max="2288" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2289" max="2289" width="21.453125" style="3" customWidth="1"/>
+    <col min="2290" max="2290" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2291" max="2291" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2292" max="2292" width="20.7265625" style="3" customWidth="1"/>
+    <col min="2293" max="2293" width="13" style="3" customWidth="1"/>
+    <col min="2294" max="2294" width="13.453125" style="3" customWidth="1"/>
+    <col min="2295" max="2295" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2296" max="2296" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2297" max="2297" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2298" max="2298" width="26.453125" style="3" customWidth="1"/>
+    <col min="2299" max="2299" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2300" max="2300" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2301" max="2301" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2302" max="2302" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2303" max="2303" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2304" max="2304" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2305" max="2305" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="10.453125" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2308" max="2308" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2309" max="2538" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2539" max="2539" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2540" max="2540" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2541" max="2541" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2542" max="2542" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2543" max="2543" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2544" max="2544" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2545" max="2545" width="21.453125" style="3" customWidth="1"/>
+    <col min="2546" max="2546" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2547" max="2547" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2548" max="2548" width="20.7265625" style="3" customWidth="1"/>
+    <col min="2549" max="2549" width="13" style="3" customWidth="1"/>
+    <col min="2550" max="2550" width="13.453125" style="3" customWidth="1"/>
+    <col min="2551" max="2551" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2552" max="2552" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2553" max="2553" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2554" max="2554" width="26.453125" style="3" customWidth="1"/>
+    <col min="2555" max="2555" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2556" max="2556" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2557" max="2557" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2558" max="2558" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2559" max="2559" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2560" max="2560" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2561" max="2561" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="10.453125" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2564" max="2564" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2565" max="2794" width="9.1796875" style="3" customWidth="1"/>
+    <col min="2795" max="2795" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2796" max="2796" width="42.7265625" style="3" customWidth="1"/>
+    <col min="2797" max="2797" width="40.7265625" style="3" customWidth="1"/>
+    <col min="2798" max="2798" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2799" max="2799" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2800" max="2800" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2801" max="2801" width="21.453125" style="3" customWidth="1"/>
+    <col min="2802" max="2802" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2803" max="2803" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2804" max="2804" width="20.7265625" style="3" customWidth="1"/>
+    <col min="2805" max="2805" width="13" style="3" customWidth="1"/>
+    <col min="2806" max="2806" width="13.453125" style="3" customWidth="1"/>
+    <col min="2807" max="2807" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2808" max="2808" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2809" max="2809" width="22.26953125" style="3" customWidth="1"/>
+    <col min="2810" max="2810" width="26.453125" style="3" customWidth="1"/>
+    <col min="2811" max="2811" width="35.7265625" style="3" customWidth="1"/>
+    <col min="2812" max="2812" width="15.7265625" style="3" customWidth="1"/>
+    <col min="2813" max="2813" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2814" max="2814" width="19.7265625" style="3" customWidth="1"/>
+    <col min="2815" max="2815" width="25.81640625" style="3" customWidth="1"/>
+    <col min="2816" max="2816" width="24.54296875" style="3" customWidth="1"/>
+    <col min="2817" max="2817" width="13.1796875" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="10.453125" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="26.81640625" style="3" customWidth="1"/>
+    <col min="2820" max="2820" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2821" max="3050" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3051" max="3051" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3052" max="3052" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3053" max="3053" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3054" max="3054" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3055" max="3055" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3056" max="3056" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3057" max="3057" width="21.453125" style="3" customWidth="1"/>
+    <col min="3058" max="3058" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3059" max="3059" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3060" max="3060" width="20.7265625" style="3" customWidth="1"/>
+    <col min="3061" max="3061" width="13" style="3" customWidth="1"/>
+    <col min="3062" max="3062" width="13.453125" style="3" customWidth="1"/>
+    <col min="3063" max="3063" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3064" max="3064" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3065" max="3065" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3066" max="3066" width="26.453125" style="3" customWidth="1"/>
+    <col min="3067" max="3067" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3068" max="3068" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3069" max="3069" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3070" max="3070" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3071" max="3071" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3072" max="3072" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3073" max="3073" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="10.453125" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3076" max="3076" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3077" max="3306" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3307" max="3307" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3308" max="3308" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3309" max="3309" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3310" max="3310" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3311" max="3311" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3312" max="3312" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3313" max="3313" width="21.453125" style="3" customWidth="1"/>
+    <col min="3314" max="3314" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3315" max="3315" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3316" max="3316" width="20.7265625" style="3" customWidth="1"/>
+    <col min="3317" max="3317" width="13" style="3" customWidth="1"/>
+    <col min="3318" max="3318" width="13.453125" style="3" customWidth="1"/>
+    <col min="3319" max="3319" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3320" max="3320" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3321" max="3321" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3322" max="3322" width="26.453125" style="3" customWidth="1"/>
+    <col min="3323" max="3323" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3324" max="3324" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3325" max="3325" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3326" max="3326" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3327" max="3327" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3328" max="3328" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3329" max="3329" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="10.453125" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3332" max="3332" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3333" max="3562" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3563" max="3563" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3564" max="3564" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3565" max="3565" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3566" max="3566" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3567" max="3567" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3568" max="3568" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3569" max="3569" width="21.453125" style="3" customWidth="1"/>
+    <col min="3570" max="3570" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3571" max="3571" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3572" max="3572" width="20.7265625" style="3" customWidth="1"/>
+    <col min="3573" max="3573" width="13" style="3" customWidth="1"/>
+    <col min="3574" max="3574" width="13.453125" style="3" customWidth="1"/>
+    <col min="3575" max="3575" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3576" max="3576" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3577" max="3577" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3578" max="3578" width="26.453125" style="3" customWidth="1"/>
+    <col min="3579" max="3579" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3580" max="3580" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3581" max="3581" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3582" max="3582" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3583" max="3583" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3584" max="3584" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3585" max="3585" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="10.453125" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3588" max="3588" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3589" max="3818" width="9.1796875" style="3" customWidth="1"/>
+    <col min="3819" max="3819" width="27.7265625" style="3" customWidth="1"/>
+    <col min="3820" max="3820" width="42.7265625" style="3" customWidth="1"/>
+    <col min="3821" max="3821" width="40.7265625" style="3" customWidth="1"/>
+    <col min="3822" max="3822" width="25.7265625" style="3" customWidth="1"/>
+    <col min="3823" max="3823" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3824" max="3824" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3825" max="3825" width="21.453125" style="3" customWidth="1"/>
+    <col min="3826" max="3826" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3827" max="3827" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3828" max="3828" width="20.7265625" style="3" customWidth="1"/>
+    <col min="3829" max="3829" width="13" style="3" customWidth="1"/>
+    <col min="3830" max="3830" width="13.453125" style="3" customWidth="1"/>
+    <col min="3831" max="3831" width="18.26953125" style="3" customWidth="1"/>
+    <col min="3832" max="3832" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3833" max="3833" width="22.26953125" style="3" customWidth="1"/>
+    <col min="3834" max="3834" width="26.453125" style="3" customWidth="1"/>
+    <col min="3835" max="3835" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3836" max="3836" width="15.7265625" style="3" customWidth="1"/>
+    <col min="3837" max="3837" width="14.1796875" style="3" customWidth="1"/>
+    <col min="3838" max="3838" width="19.7265625" style="3" customWidth="1"/>
+    <col min="3839" max="3839" width="25.81640625" style="3" customWidth="1"/>
+    <col min="3840" max="3840" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3841" max="3841" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="10.453125" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3844" max="3844" width="22.54296875" style="3" customWidth="1"/>
+    <col min="3845" max="4074" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4075" max="4075" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4076" max="4076" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4077" max="4077" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4078" max="4078" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4079" max="4079" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4080" max="4080" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4081" max="4081" width="21.453125" style="3" customWidth="1"/>
+    <col min="4082" max="4082" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4083" max="4083" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4084" max="4084" width="20.7265625" style="3" customWidth="1"/>
+    <col min="4085" max="4085" width="13" style="3" customWidth="1"/>
+    <col min="4086" max="4086" width="13.453125" style="3" customWidth="1"/>
+    <col min="4087" max="4087" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4088" max="4088" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4089" max="4089" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4090" max="4090" width="26.453125" style="3" customWidth="1"/>
+    <col min="4091" max="4091" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4092" max="4092" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4093" max="4093" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4094" max="4094" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4095" max="4095" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4096" max="4096" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4097" max="4097" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="10.453125" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4100" max="4100" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4101" max="4330" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4331" max="4331" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4332" max="4332" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4333" max="4333" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4334" max="4334" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4335" max="4335" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4336" max="4336" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4337" max="4337" width="21.453125" style="3" customWidth="1"/>
+    <col min="4338" max="4338" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4339" max="4339" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4340" max="4340" width="20.7265625" style="3" customWidth="1"/>
+    <col min="4341" max="4341" width="13" style="3" customWidth="1"/>
+    <col min="4342" max="4342" width="13.453125" style="3" customWidth="1"/>
+    <col min="4343" max="4343" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4344" max="4344" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4345" max="4345" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4346" max="4346" width="26.453125" style="3" customWidth="1"/>
+    <col min="4347" max="4347" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4348" max="4348" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4349" max="4349" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4350" max="4350" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4351" max="4351" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4352" max="4352" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4353" max="4353" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="10.453125" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4356" max="4356" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4357" max="4586" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4587" max="4587" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4588" max="4588" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4589" max="4589" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4590" max="4590" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4591" max="4591" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4592" max="4592" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4593" max="4593" width="21.453125" style="3" customWidth="1"/>
+    <col min="4594" max="4594" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4595" max="4595" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4596" max="4596" width="20.7265625" style="3" customWidth="1"/>
+    <col min="4597" max="4597" width="13" style="3" customWidth="1"/>
+    <col min="4598" max="4598" width="13.453125" style="3" customWidth="1"/>
+    <col min="4599" max="4599" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4600" max="4600" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4601" max="4601" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4602" max="4602" width="26.453125" style="3" customWidth="1"/>
+    <col min="4603" max="4603" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4604" max="4604" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4605" max="4605" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4606" max="4606" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4607" max="4607" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4608" max="4608" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4609" max="4609" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="10.453125" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4612" max="4612" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4613" max="4842" width="9.1796875" style="3" customWidth="1"/>
+    <col min="4843" max="4843" width="27.7265625" style="3" customWidth="1"/>
+    <col min="4844" max="4844" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4845" max="4845" width="40.7265625" style="3" customWidth="1"/>
+    <col min="4846" max="4846" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4847" max="4847" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4848" max="4848" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4849" max="4849" width="21.453125" style="3" customWidth="1"/>
+    <col min="4850" max="4850" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4851" max="4851" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4852" max="4852" width="20.7265625" style="3" customWidth="1"/>
+    <col min="4853" max="4853" width="13" style="3" customWidth="1"/>
+    <col min="4854" max="4854" width="13.453125" style="3" customWidth="1"/>
+    <col min="4855" max="4855" width="18.26953125" style="3" customWidth="1"/>
+    <col min="4856" max="4856" width="20.81640625" style="3" customWidth="1"/>
+    <col min="4857" max="4857" width="22.26953125" style="3" customWidth="1"/>
+    <col min="4858" max="4858" width="26.453125" style="3" customWidth="1"/>
+    <col min="4859" max="4859" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4860" max="4860" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4861" max="4861" width="14.1796875" style="3" customWidth="1"/>
+    <col min="4862" max="4862" width="19.7265625" style="3" customWidth="1"/>
+    <col min="4863" max="4863" width="25.81640625" style="3" customWidth="1"/>
+    <col min="4864" max="4864" width="24.54296875" style="3" customWidth="1"/>
+    <col min="4865" max="4865" width="13.1796875" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="10.453125" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="26.81640625" style="3" customWidth="1"/>
+    <col min="4868" max="4868" width="22.54296875" style="3" customWidth="1"/>
+    <col min="4869" max="5098" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5099" max="5099" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5100" max="5100" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5101" max="5101" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5102" max="5102" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5103" max="5103" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5104" max="5104" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5105" max="5105" width="21.453125" style="3" customWidth="1"/>
+    <col min="5106" max="5106" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5107" max="5107" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5108" max="5108" width="20.7265625" style="3" customWidth="1"/>
+    <col min="5109" max="5109" width="13" style="3" customWidth="1"/>
+    <col min="5110" max="5110" width="13.453125" style="3" customWidth="1"/>
+    <col min="5111" max="5111" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5112" max="5112" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5113" max="5113" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5114" max="5114" width="26.453125" style="3" customWidth="1"/>
+    <col min="5115" max="5115" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5116" max="5116" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5117" max="5117" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5118" max="5118" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5119" max="5119" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5120" max="5120" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5121" max="5121" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="10.453125" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5124" max="5124" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5125" max="5354" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5355" max="5355" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5356" max="5356" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5357" max="5357" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5358" max="5358" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5359" max="5359" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5360" max="5360" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5361" max="5361" width="21.453125" style="3" customWidth="1"/>
+    <col min="5362" max="5362" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5363" max="5363" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5364" max="5364" width="20.7265625" style="3" customWidth="1"/>
+    <col min="5365" max="5365" width="13" style="3" customWidth="1"/>
+    <col min="5366" max="5366" width="13.453125" style="3" customWidth="1"/>
+    <col min="5367" max="5367" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5368" max="5368" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5369" max="5369" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5370" max="5370" width="26.453125" style="3" customWidth="1"/>
+    <col min="5371" max="5371" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5372" max="5372" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5373" max="5373" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5374" max="5374" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5375" max="5375" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5376" max="5376" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5377" max="5377" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="10.453125" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5380" max="5380" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5381" max="5610" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5611" max="5611" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5612" max="5612" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5613" max="5613" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5614" max="5614" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5615" max="5615" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5616" max="5616" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5617" max="5617" width="21.453125" style="3" customWidth="1"/>
+    <col min="5618" max="5618" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5619" max="5619" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5620" max="5620" width="20.7265625" style="3" customWidth="1"/>
+    <col min="5621" max="5621" width="13" style="3" customWidth="1"/>
+    <col min="5622" max="5622" width="13.453125" style="3" customWidth="1"/>
+    <col min="5623" max="5623" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5624" max="5624" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5625" max="5625" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5626" max="5626" width="26.453125" style="3" customWidth="1"/>
+    <col min="5627" max="5627" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5628" max="5628" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5629" max="5629" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5630" max="5630" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5631" max="5631" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5632" max="5632" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5633" max="5633" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="10.453125" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5636" max="5636" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5637" max="5866" width="9.1796875" style="3" customWidth="1"/>
+    <col min="5867" max="5867" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5868" max="5868" width="42.7265625" style="3" customWidth="1"/>
+    <col min="5869" max="5869" width="40.7265625" style="3" customWidth="1"/>
+    <col min="5870" max="5870" width="25.7265625" style="3" customWidth="1"/>
+    <col min="5871" max="5871" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5872" max="5872" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5873" max="5873" width="21.453125" style="3" customWidth="1"/>
+    <col min="5874" max="5874" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5875" max="5875" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5876" max="5876" width="20.7265625" style="3" customWidth="1"/>
+    <col min="5877" max="5877" width="13" style="3" customWidth="1"/>
+    <col min="5878" max="5878" width="13.453125" style="3" customWidth="1"/>
+    <col min="5879" max="5879" width="18.26953125" style="3" customWidth="1"/>
+    <col min="5880" max="5880" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5881" max="5881" width="22.26953125" style="3" customWidth="1"/>
+    <col min="5882" max="5882" width="26.453125" style="3" customWidth="1"/>
+    <col min="5883" max="5883" width="35.7265625" style="3" customWidth="1"/>
+    <col min="5884" max="5884" width="15.7265625" style="3" customWidth="1"/>
+    <col min="5885" max="5885" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5886" max="5886" width="19.7265625" style="3" customWidth="1"/>
+    <col min="5887" max="5887" width="25.81640625" style="3" customWidth="1"/>
+    <col min="5888" max="5888" width="24.54296875" style="3" customWidth="1"/>
+    <col min="5889" max="5889" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="10.453125" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="26.81640625" style="3" customWidth="1"/>
+    <col min="5892" max="5892" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5893" max="6122" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6123" max="6123" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6124" max="6124" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6125" max="6125" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6126" max="6126" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6127" max="6127" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6128" max="6128" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6129" max="6129" width="21.453125" style="3" customWidth="1"/>
+    <col min="6130" max="6130" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6131" max="6131" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6132" max="6132" width="20.7265625" style="3" customWidth="1"/>
+    <col min="6133" max="6133" width="13" style="3" customWidth="1"/>
+    <col min="6134" max="6134" width="13.453125" style="3" customWidth="1"/>
+    <col min="6135" max="6135" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6136" max="6136" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6137" max="6137" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6138" max="6138" width="26.453125" style="3" customWidth="1"/>
+    <col min="6139" max="6139" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6140" max="6140" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6141" max="6141" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6142" max="6142" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6143" max="6143" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6144" max="6144" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6145" max="6145" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="10.453125" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6148" max="6148" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6149" max="6378" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6379" max="6379" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6380" max="6380" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6381" max="6381" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6382" max="6382" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6383" max="6383" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6384" max="6384" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6385" max="6385" width="21.453125" style="3" customWidth="1"/>
+    <col min="6386" max="6386" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6387" max="6387" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6388" max="6388" width="20.7265625" style="3" customWidth="1"/>
+    <col min="6389" max="6389" width="13" style="3" customWidth="1"/>
+    <col min="6390" max="6390" width="13.453125" style="3" customWidth="1"/>
+    <col min="6391" max="6391" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6392" max="6392" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6393" max="6393" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6394" max="6394" width="26.453125" style="3" customWidth="1"/>
+    <col min="6395" max="6395" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6396" max="6396" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6397" max="6397" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6398" max="6398" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6399" max="6399" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6400" max="6400" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6401" max="6401" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="10.453125" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6404" max="6404" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6405" max="6634" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6635" max="6635" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6636" max="6636" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6637" max="6637" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6638" max="6638" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6639" max="6639" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6640" max="6640" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6641" max="6641" width="21.453125" style="3" customWidth="1"/>
+    <col min="6642" max="6642" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6643" max="6643" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6644" max="6644" width="20.7265625" style="3" customWidth="1"/>
+    <col min="6645" max="6645" width="13" style="3" customWidth="1"/>
+    <col min="6646" max="6646" width="13.453125" style="3" customWidth="1"/>
+    <col min="6647" max="6647" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6648" max="6648" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6649" max="6649" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6650" max="6650" width="26.453125" style="3" customWidth="1"/>
+    <col min="6651" max="6651" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6652" max="6652" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6653" max="6653" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6654" max="6654" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6655" max="6655" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6656" max="6656" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6657" max="6657" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="10.453125" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6660" max="6660" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6661" max="6890" width="9.1796875" style="3" customWidth="1"/>
+    <col min="6891" max="6891" width="27.7265625" style="3" customWidth="1"/>
+    <col min="6892" max="6892" width="42.7265625" style="3" customWidth="1"/>
+    <col min="6893" max="6893" width="40.7265625" style="3" customWidth="1"/>
+    <col min="6894" max="6894" width="25.7265625" style="3" customWidth="1"/>
+    <col min="6895" max="6895" width="30.7265625" style="3" customWidth="1"/>
+    <col min="6896" max="6896" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6897" max="6897" width="21.453125" style="3" customWidth="1"/>
+    <col min="6898" max="6898" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6899" max="6899" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6900" max="6900" width="20.7265625" style="3" customWidth="1"/>
+    <col min="6901" max="6901" width="13" style="3" customWidth="1"/>
+    <col min="6902" max="6902" width="13.453125" style="3" customWidth="1"/>
+    <col min="6903" max="6903" width="18.26953125" style="3" customWidth="1"/>
+    <col min="6904" max="6904" width="20.81640625" style="3" customWidth="1"/>
+    <col min="6905" max="6905" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6906" max="6906" width="26.453125" style="3" customWidth="1"/>
+    <col min="6907" max="6907" width="35.7265625" style="3" customWidth="1"/>
+    <col min="6908" max="6908" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6909" max="6909" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6910" max="6910" width="19.7265625" style="3" customWidth="1"/>
+    <col min="6911" max="6911" width="25.81640625" style="3" customWidth="1"/>
+    <col min="6912" max="6912" width="24.54296875" style="3" customWidth="1"/>
+    <col min="6913" max="6913" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="10.453125" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6916" max="6916" width="22.54296875" style="3" customWidth="1"/>
+    <col min="6917" max="7146" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7147" max="7147" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7148" max="7148" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7149" max="7149" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7150" max="7150" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7151" max="7151" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7152" max="7152" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7153" max="7153" width="21.453125" style="3" customWidth="1"/>
+    <col min="7154" max="7154" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7155" max="7155" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7156" max="7156" width="20.7265625" style="3" customWidth="1"/>
+    <col min="7157" max="7157" width="13" style="3" customWidth="1"/>
+    <col min="7158" max="7158" width="13.453125" style="3" customWidth="1"/>
+    <col min="7159" max="7159" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7160" max="7160" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7161" max="7161" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7162" max="7162" width="26.453125" style="3" customWidth="1"/>
+    <col min="7163" max="7163" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7164" max="7164" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7165" max="7165" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7166" max="7166" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7167" max="7167" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7168" max="7168" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7169" max="7169" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="10.453125" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7172" max="7172" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7173" max="7402" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7403" max="7403" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7404" max="7404" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7405" max="7405" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7406" max="7406" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7407" max="7407" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7408" max="7408" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7409" max="7409" width="21.453125" style="3" customWidth="1"/>
+    <col min="7410" max="7410" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7411" max="7411" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7412" max="7412" width="20.7265625" style="3" customWidth="1"/>
+    <col min="7413" max="7413" width="13" style="3" customWidth="1"/>
+    <col min="7414" max="7414" width="13.453125" style="3" customWidth="1"/>
+    <col min="7415" max="7415" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7416" max="7416" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7417" max="7417" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7418" max="7418" width="26.453125" style="3" customWidth="1"/>
+    <col min="7419" max="7419" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7420" max="7420" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7421" max="7421" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7422" max="7422" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7423" max="7423" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7424" max="7424" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7425" max="7425" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="10.453125" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7428" max="7428" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7429" max="7658" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7659" max="7659" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7660" max="7660" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7661" max="7661" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7662" max="7662" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7663" max="7663" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7664" max="7664" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7665" max="7665" width="21.453125" style="3" customWidth="1"/>
+    <col min="7666" max="7666" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7667" max="7667" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7668" max="7668" width="20.7265625" style="3" customWidth="1"/>
+    <col min="7669" max="7669" width="13" style="3" customWidth="1"/>
+    <col min="7670" max="7670" width="13.453125" style="3" customWidth="1"/>
+    <col min="7671" max="7671" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7672" max="7672" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7673" max="7673" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7674" max="7674" width="26.453125" style="3" customWidth="1"/>
+    <col min="7675" max="7675" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7676" max="7676" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7677" max="7677" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7678" max="7678" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7679" max="7679" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7680" max="7680" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7681" max="7681" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="10.453125" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7684" max="7684" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7685" max="7914" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7915" max="7915" width="27.7265625" style="3" customWidth="1"/>
+    <col min="7916" max="7916" width="42.7265625" style="3" customWidth="1"/>
+    <col min="7917" max="7917" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7918" max="7918" width="25.7265625" style="3" customWidth="1"/>
+    <col min="7919" max="7919" width="30.7265625" style="3" customWidth="1"/>
+    <col min="7920" max="7920" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7921" max="7921" width="21.453125" style="3" customWidth="1"/>
+    <col min="7922" max="7922" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7923" max="7923" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7924" max="7924" width="20.7265625" style="3" customWidth="1"/>
+    <col min="7925" max="7925" width="13" style="3" customWidth="1"/>
+    <col min="7926" max="7926" width="13.453125" style="3" customWidth="1"/>
+    <col min="7927" max="7927" width="18.26953125" style="3" customWidth="1"/>
+    <col min="7928" max="7928" width="20.81640625" style="3" customWidth="1"/>
+    <col min="7929" max="7929" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7930" max="7930" width="26.453125" style="3" customWidth="1"/>
+    <col min="7931" max="7931" width="35.7265625" style="3" customWidth="1"/>
+    <col min="7932" max="7932" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7933" max="7933" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7934" max="7934" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7935" max="7935" width="25.81640625" style="3" customWidth="1"/>
+    <col min="7936" max="7936" width="24.54296875" style="3" customWidth="1"/>
+    <col min="7937" max="7937" width="13.1796875" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="10.453125" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7940" max="7940" width="22.54296875" style="3" customWidth="1"/>
+    <col min="7941" max="8170" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8171" max="8171" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8172" max="8172" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8173" max="8173" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8174" max="8174" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8175" max="8175" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8176" max="8176" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8177" max="8177" width="21.453125" style="3" customWidth="1"/>
+    <col min="8178" max="8178" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8179" max="8179" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8180" max="8180" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8181" max="8181" width="13" style="3" customWidth="1"/>
+    <col min="8182" max="8182" width="13.453125" style="3" customWidth="1"/>
+    <col min="8183" max="8183" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8184" max="8184" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8185" max="8185" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8186" max="8186" width="26.453125" style="3" customWidth="1"/>
+    <col min="8187" max="8187" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8188" max="8188" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8189" max="8189" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8190" max="8190" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8191" max="8191" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8192" max="8192" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8193" max="8193" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="10.453125" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8196" max="8196" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8197" max="8426" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8427" max="8427" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8428" max="8428" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8429" max="8429" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8430" max="8430" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8431" max="8431" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8432" max="8432" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8433" max="8433" width="21.453125" style="3" customWidth="1"/>
+    <col min="8434" max="8434" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8435" max="8435" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8436" max="8436" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8437" max="8437" width="13" style="3" customWidth="1"/>
+    <col min="8438" max="8438" width="13.453125" style="3" customWidth="1"/>
+    <col min="8439" max="8439" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8440" max="8440" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8441" max="8441" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8442" max="8442" width="26.453125" style="3" customWidth="1"/>
+    <col min="8443" max="8443" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8444" max="8444" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8445" max="8445" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8446" max="8446" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8447" max="8447" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8448" max="8448" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8449" max="8449" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="10.453125" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8452" max="8452" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8453" max="8682" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8683" max="8683" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8684" max="8684" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8685" max="8685" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8686" max="8686" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8687" max="8687" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8688" max="8688" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8689" max="8689" width="21.453125" style="3" customWidth="1"/>
+    <col min="8690" max="8690" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8691" max="8691" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8692" max="8692" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8693" max="8693" width="13" style="3" customWidth="1"/>
+    <col min="8694" max="8694" width="13.453125" style="3" customWidth="1"/>
+    <col min="8695" max="8695" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8696" max="8696" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8697" max="8697" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8698" max="8698" width="26.453125" style="3" customWidth="1"/>
+    <col min="8699" max="8699" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8700" max="8700" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8701" max="8701" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8702" max="8702" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8703" max="8703" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8704" max="8704" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8705" max="8705" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="10.453125" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8708" max="8708" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8709" max="8938" width="9.1796875" style="3" customWidth="1"/>
+    <col min="8939" max="8939" width="27.7265625" style="3" customWidth="1"/>
+    <col min="8940" max="8940" width="42.7265625" style="3" customWidth="1"/>
+    <col min="8941" max="8941" width="40.7265625" style="3" customWidth="1"/>
+    <col min="8942" max="8942" width="25.7265625" style="3" customWidth="1"/>
+    <col min="8943" max="8943" width="30.7265625" style="3" customWidth="1"/>
+    <col min="8944" max="8944" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8945" max="8945" width="21.453125" style="3" customWidth="1"/>
+    <col min="8946" max="8946" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8947" max="8947" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8948" max="8948" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8949" max="8949" width="13" style="3" customWidth="1"/>
+    <col min="8950" max="8950" width="13.453125" style="3" customWidth="1"/>
+    <col min="8951" max="8951" width="18.26953125" style="3" customWidth="1"/>
+    <col min="8952" max="8952" width="20.81640625" style="3" customWidth="1"/>
+    <col min="8953" max="8953" width="22.26953125" style="3" customWidth="1"/>
+    <col min="8954" max="8954" width="26.453125" style="3" customWidth="1"/>
+    <col min="8955" max="8955" width="35.7265625" style="3" customWidth="1"/>
+    <col min="8956" max="8956" width="15.7265625" style="3" customWidth="1"/>
+    <col min="8957" max="8957" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8958" max="8958" width="19.7265625" style="3" customWidth="1"/>
+    <col min="8959" max="8959" width="25.81640625" style="3" customWidth="1"/>
+    <col min="8960" max="8960" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8961" max="8961" width="13.1796875" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="10.453125" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8964" max="8964" width="22.54296875" style="3" customWidth="1"/>
+    <col min="8965" max="9194" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9195" max="9195" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9196" max="9196" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9197" max="9197" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9198" max="9198" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9199" max="9199" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9200" max="9200" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9201" max="9201" width="21.453125" style="3" customWidth="1"/>
+    <col min="9202" max="9202" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9203" max="9203" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9204" max="9204" width="20.7265625" style="3" customWidth="1"/>
+    <col min="9205" max="9205" width="13" style="3" customWidth="1"/>
+    <col min="9206" max="9206" width="13.453125" style="3" customWidth="1"/>
+    <col min="9207" max="9207" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9208" max="9208" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9209" max="9209" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9210" max="9210" width="26.453125" style="3" customWidth="1"/>
+    <col min="9211" max="9211" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9212" max="9212" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9213" max="9213" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9214" max="9214" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9215" max="9215" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9216" max="9216" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9217" max="9217" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="10.453125" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9220" max="9220" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9221" max="9450" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9451" max="9451" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9452" max="9452" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9453" max="9453" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9454" max="9454" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9455" max="9455" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9456" max="9456" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9457" max="9457" width="21.453125" style="3" customWidth="1"/>
+    <col min="9458" max="9458" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9459" max="9459" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9460" max="9460" width="20.7265625" style="3" customWidth="1"/>
+    <col min="9461" max="9461" width="13" style="3" customWidth="1"/>
+    <col min="9462" max="9462" width="13.453125" style="3" customWidth="1"/>
+    <col min="9463" max="9463" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9464" max="9464" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9465" max="9465" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9466" max="9466" width="26.453125" style="3" customWidth="1"/>
+    <col min="9467" max="9467" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9468" max="9468" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9469" max="9469" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9470" max="9470" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9471" max="9471" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9472" max="9472" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9473" max="9473" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="10.453125" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9476" max="9476" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9477" max="9706" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9707" max="9707" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9708" max="9708" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9709" max="9709" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9710" max="9710" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9711" max="9711" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9712" max="9712" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9713" max="9713" width="21.453125" style="3" customWidth="1"/>
+    <col min="9714" max="9714" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9715" max="9715" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9716" max="9716" width="20.7265625" style="3" customWidth="1"/>
+    <col min="9717" max="9717" width="13" style="3" customWidth="1"/>
+    <col min="9718" max="9718" width="13.453125" style="3" customWidth="1"/>
+    <col min="9719" max="9719" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9720" max="9720" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9721" max="9721" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9722" max="9722" width="26.453125" style="3" customWidth="1"/>
+    <col min="9723" max="9723" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9724" max="9724" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9725" max="9725" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9726" max="9726" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9727" max="9727" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9728" max="9728" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9729" max="9729" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="10.453125" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9732" max="9732" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9733" max="9962" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9963" max="9963" width="27.7265625" style="3" customWidth="1"/>
+    <col min="9964" max="9964" width="42.7265625" style="3" customWidth="1"/>
+    <col min="9965" max="9965" width="40.7265625" style="3" customWidth="1"/>
+    <col min="9966" max="9966" width="25.7265625" style="3" customWidth="1"/>
+    <col min="9967" max="9967" width="30.7265625" style="3" customWidth="1"/>
+    <col min="9968" max="9968" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9969" max="9969" width="21.453125" style="3" customWidth="1"/>
+    <col min="9970" max="9970" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9971" max="9971" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9972" max="9972" width="20.7265625" style="3" customWidth="1"/>
+    <col min="9973" max="9973" width="13" style="3" customWidth="1"/>
+    <col min="9974" max="9974" width="13.453125" style="3" customWidth="1"/>
+    <col min="9975" max="9975" width="18.26953125" style="3" customWidth="1"/>
+    <col min="9976" max="9976" width="20.81640625" style="3" customWidth="1"/>
+    <col min="9977" max="9977" width="22.26953125" style="3" customWidth="1"/>
+    <col min="9978" max="9978" width="26.453125" style="3" customWidth="1"/>
+    <col min="9979" max="9979" width="35.7265625" style="3" customWidth="1"/>
+    <col min="9980" max="9980" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9981" max="9981" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9982" max="9982" width="19.7265625" style="3" customWidth="1"/>
+    <col min="9983" max="9983" width="25.81640625" style="3" customWidth="1"/>
+    <col min="9984" max="9984" width="24.54296875" style="3" customWidth="1"/>
+    <col min="9985" max="9985" width="13.1796875" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="10.453125" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9988" max="9988" width="22.54296875" style="3" customWidth="1"/>
+    <col min="9989" max="10218" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10219" max="10219" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10220" max="10220" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10221" max="10221" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10222" max="10222" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10223" max="10223" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10224" max="10224" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10225" max="10225" width="21.453125" style="3" customWidth="1"/>
+    <col min="10226" max="10226" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10227" max="10227" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10228" max="10228" width="20.7265625" style="3" customWidth="1"/>
+    <col min="10229" max="10229" width="13" style="3" customWidth="1"/>
+    <col min="10230" max="10230" width="13.453125" style="3" customWidth="1"/>
+    <col min="10231" max="10231" width="18.26953125" style="3" customWidth="1"/>
+    <col min="10232" max="10232" width="20.81640625" style="3" customWidth="1"/>
+    <col min="10233" max="10233" width="22.26953125" style="3" customWidth="1"/>
+    <col min="10234" max="10234" width="26.453125" style="3" customWidth="1"/>
+    <col min="10235" max="10235" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10236" max="10236" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10237" max="10237" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10238" max="10238" width="19.7265625" style="3" customWidth="1"/>
+    <col min="10239" max="10239" width="25.81640625" style="3" customWidth="1"/>
+    <col min="10240" max="10240" width="24.54296875" style="3" customWidth="1"/>
+    <col min="10241" max="10241" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="10.453125" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="26.81640625" style="3" customWidth="1"/>
+    <col min="10244" max="10244" width="22.54296875" style="3" customWidth="1"/>
+    <col min="10245" max="10474" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10475" max="10475" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10476" max="10476" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10477" max="10477" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10478" max="10478" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10479" max="10479" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10480" max="10480" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10481" max="10481" width="21.453125" style="3" customWidth="1"/>
+    <col min="10482" max="10482" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10483" max="10483" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10484" max="10484" width="20.7265625" style="3" customWidth="1"/>
+    <col min="10485" max="10485" width="13" style="3" customWidth="1"/>
+    <col min="10486" max="10486" width="13.453125" style="3" customWidth="1"/>
+    <col min="10487" max="10487" width="18.26953125" style="3" customWidth="1"/>
+    <col min="10488" max="10488" width="20.81640625" style="3" customWidth="1"/>
+    <col min="10489" max="10489" width="22.26953125" style="3" customWidth="1"/>
+    <col min="10490" max="10490" width="26.453125" style="3" customWidth="1"/>
+    <col min="10491" max="10491" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10492" max="10492" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10493" max="10493" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10494" max="10494" width="19.7265625" style="3" customWidth="1"/>
+    <col min="10495" max="10495" width="25.81640625" style="3" customWidth="1"/>
+    <col min="10496" max="10496" width="24.54296875" style="3" customWidth="1"/>
+    <col min="10497" max="10497" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="10.453125" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="26.81640625" style="3" customWidth="1"/>
+    <col min="10500" max="10500" width="22.54296875" style="3" customWidth="1"/>
+    <col min="10501" max="10730" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10731" max="10731" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10732" max="10732" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10733" max="10733" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10734" max="10734" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10735" max="10735" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10736" max="10736" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10737" max="10737" width="21.453125" style="3" customWidth="1"/>
+    <col min="10738" max="10738" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10739" max="10739" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10740" max="10740" width="20.7265625" style="3" customWidth="1"/>
+    <col min="10741" max="10741" width="13" style="3" customWidth="1"/>
+    <col min="10742" max="10742" width="13.453125" style="3" customWidth="1"/>
+    <col min="10743" max="10743" width="18.26953125" style="3" customWidth="1"/>
+    <col min="10744" max="10744" width="20.81640625" style="3" customWidth="1"/>
+    <col min="10745" max="10745" width="22.26953125" style="3" customWidth="1"/>
+    <col min="10746" max="10746" width="26.453125" style="3" customWidth="1"/>
+    <col min="10747" max="10747" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10748" max="10748" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10749" max="10749" width="14.1796875" style="3" customWidth="1"/>
+    <col min="10750" max="10750" width="19.7265625" style="3" customWidth="1"/>
+    <col min="10751" max="10751" width="25.81640625" style="3" customWidth="1"/>
+    <col min="10752" max="10752" width="24.54296875" style="3" customWidth="1"/>
+    <col min="10753" max="10753" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="10.453125" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="26.81640625" style="3" customWidth="1"/>
+    <col min="10756" max="10756" width="22.54296875" style="3" customWidth="1"/>
+    <col min="10757" max="10986" width="9.1796875" style="3" customWidth="1"/>
+    <col min="10987" max="10987" width="27.7265625" style="3" customWidth="1"/>
+    <col min="10988" max="10988" width="42.7265625" style="3" customWidth="1"/>
+    <col min="10989" max="10989" width="40.7265625" style="3" customWidth="1"/>
+    <col min="10990" max="10990" width="25.7265625" style="3" customWidth="1"/>
+    <col min="10991" max="10991" width="30.7265625" style="3" customWidth="1"/>
+    <col min="10992" max="10992" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10993" max="10993" width="21.453125" style="3" customWidth="1"/>
+    <col min="10994" max="10994" width="35.7265625" style="3" customWidth="1"/>
+    <col min="10995" max="10995" width="15.7265625" style="3" customWidth="1"/>
+    <col min="10996" max="10996" width="20.7265625" style="3" customWidth="1"/>
+    <col min="10997" max="10997" width="13" style="3" customWidth="1"/>
+    <col min="10998" max="10998" width="13.453125" style="3" customWidth="1"/>
+    <col min="10999" max="10999" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11000" max="11000" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11001" max="11001" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11002" max="11002" width="26.453125" style="3" customWidth="1"/>
+    <col min="11003" max="11003" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11004" max="11004" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11005" max="11005" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11006" max="11006" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11007" max="11007" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11008" max="11008" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11009" max="11009" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="10.453125" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11012" max="11012" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11013" max="11242" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11243" max="11243" width="27.7265625" style="3" customWidth="1"/>
+    <col min="11244" max="11244" width="42.7265625" style="3" customWidth="1"/>
+    <col min="11245" max="11245" width="40.7265625" style="3" customWidth="1"/>
+    <col min="11246" max="11246" width="25.7265625" style="3" customWidth="1"/>
+    <col min="11247" max="11247" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11248" max="11248" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11249" max="11249" width="21.453125" style="3" customWidth="1"/>
+    <col min="11250" max="11250" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11251" max="11251" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11252" max="11252" width="20.7265625" style="3" customWidth="1"/>
+    <col min="11253" max="11253" width="13" style="3" customWidth="1"/>
+    <col min="11254" max="11254" width="13.453125" style="3" customWidth="1"/>
+    <col min="11255" max="11255" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11256" max="11256" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11257" max="11257" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11258" max="11258" width="26.453125" style="3" customWidth="1"/>
+    <col min="11259" max="11259" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11260" max="11260" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11261" max="11261" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11262" max="11262" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11263" max="11263" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11264" max="11264" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11265" max="11265" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="10.453125" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11268" max="11268" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11269" max="11498" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11499" max="11499" width="27.7265625" style="3" customWidth="1"/>
+    <col min="11500" max="11500" width="42.7265625" style="3" customWidth="1"/>
+    <col min="11501" max="11501" width="40.7265625" style="3" customWidth="1"/>
+    <col min="11502" max="11502" width="25.7265625" style="3" customWidth="1"/>
+    <col min="11503" max="11503" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11504" max="11504" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11505" max="11505" width="21.453125" style="3" customWidth="1"/>
+    <col min="11506" max="11506" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11507" max="11507" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11508" max="11508" width="20.7265625" style="3" customWidth="1"/>
+    <col min="11509" max="11509" width="13" style="3" customWidth="1"/>
+    <col min="11510" max="11510" width="13.453125" style="3" customWidth="1"/>
+    <col min="11511" max="11511" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11512" max="11512" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11513" max="11513" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11514" max="11514" width="26.453125" style="3" customWidth="1"/>
+    <col min="11515" max="11515" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11516" max="11516" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11517" max="11517" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11518" max="11518" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11519" max="11519" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11520" max="11520" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11521" max="11521" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="10.453125" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11524" max="11524" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11525" max="11754" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11755" max="11755" width="27.7265625" style="3" customWidth="1"/>
+    <col min="11756" max="11756" width="42.7265625" style="3" customWidth="1"/>
+    <col min="11757" max="11757" width="40.7265625" style="3" customWidth="1"/>
+    <col min="11758" max="11758" width="25.7265625" style="3" customWidth="1"/>
+    <col min="11759" max="11759" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11760" max="11760" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11761" max="11761" width="21.453125" style="3" customWidth="1"/>
+    <col min="11762" max="11762" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11763" max="11763" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11764" max="11764" width="20.7265625" style="3" customWidth="1"/>
+    <col min="11765" max="11765" width="13" style="3" customWidth="1"/>
+    <col min="11766" max="11766" width="13.453125" style="3" customWidth="1"/>
+    <col min="11767" max="11767" width="18.26953125" style="3" customWidth="1"/>
+    <col min="11768" max="11768" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11769" max="11769" width="22.26953125" style="3" customWidth="1"/>
+    <col min="11770" max="11770" width="26.453125" style="3" customWidth="1"/>
+    <col min="11771" max="11771" width="35.7265625" style="3" customWidth="1"/>
+    <col min="11772" max="11772" width="15.7265625" style="3" customWidth="1"/>
+    <col min="11773" max="11773" width="14.1796875" style="3" customWidth="1"/>
+    <col min="11774" max="11774" width="19.7265625" style="3" customWidth="1"/>
+    <col min="11775" max="11775" width="25.81640625" style="3" customWidth="1"/>
+    <col min="11776" max="11776" width="24.54296875" style="3" customWidth="1"/>
+    <col min="11777" max="11777" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="10.453125" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="26.81640625" style="3" customWidth="1"/>
+    <col min="11780" max="11780" width="22.54296875" style="3" customWidth="1"/>
+    <col min="11781" max="12010" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12011" max="12011" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12012" max="12012" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12013" max="12013" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12014" max="12014" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12015" max="12015" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12016" max="12016" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12017" max="12017" width="21.453125" style="3" customWidth="1"/>
+    <col min="12018" max="12018" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12019" max="12019" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12020" max="12020" width="20.7265625" style="3" customWidth="1"/>
+    <col min="12021" max="12021" width="13" style="3" customWidth="1"/>
+    <col min="12022" max="12022" width="13.453125" style="3" customWidth="1"/>
+    <col min="12023" max="12023" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12024" max="12024" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12025" max="12025" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12026" max="12026" width="26.453125" style="3" customWidth="1"/>
+    <col min="12027" max="12027" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12028" max="12028" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12029" max="12029" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12030" max="12030" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12031" max="12031" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12032" max="12032" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12033" max="12033" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="10.453125" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12036" max="12036" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12037" max="12266" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12267" max="12267" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12268" max="12268" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12269" max="12269" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12270" max="12270" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12271" max="12271" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12272" max="12272" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12273" max="12273" width="21.453125" style="3" customWidth="1"/>
+    <col min="12274" max="12274" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12275" max="12275" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12276" max="12276" width="20.7265625" style="3" customWidth="1"/>
+    <col min="12277" max="12277" width="13" style="3" customWidth="1"/>
+    <col min="12278" max="12278" width="13.453125" style="3" customWidth="1"/>
+    <col min="12279" max="12279" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12280" max="12280" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12281" max="12281" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12282" max="12282" width="26.453125" style="3" customWidth="1"/>
+    <col min="12283" max="12283" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12284" max="12284" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12285" max="12285" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12286" max="12286" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12287" max="12287" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12288" max="12288" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12289" max="12289" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="10.453125" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12292" max="12292" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12293" max="12522" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12523" max="12523" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12524" max="12524" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12525" max="12525" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12526" max="12526" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12527" max="12527" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12528" max="12528" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12529" max="12529" width="21.453125" style="3" customWidth="1"/>
+    <col min="12530" max="12530" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12531" max="12531" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12532" max="12532" width="20.7265625" style="3" customWidth="1"/>
+    <col min="12533" max="12533" width="13" style="3" customWidth="1"/>
+    <col min="12534" max="12534" width="13.453125" style="3" customWidth="1"/>
+    <col min="12535" max="12535" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12536" max="12536" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12537" max="12537" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12538" max="12538" width="26.453125" style="3" customWidth="1"/>
+    <col min="12539" max="12539" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12540" max="12540" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12541" max="12541" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12542" max="12542" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12543" max="12543" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12544" max="12544" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12545" max="12545" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="10.453125" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12548" max="12548" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12549" max="12778" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12779" max="12779" width="27.7265625" style="3" customWidth="1"/>
+    <col min="12780" max="12780" width="42.7265625" style="3" customWidth="1"/>
+    <col min="12781" max="12781" width="40.7265625" style="3" customWidth="1"/>
+    <col min="12782" max="12782" width="25.7265625" style="3" customWidth="1"/>
+    <col min="12783" max="12783" width="30.7265625" style="3" customWidth="1"/>
+    <col min="12784" max="12784" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12785" max="12785" width="21.453125" style="3" customWidth="1"/>
+    <col min="12786" max="12786" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12787" max="12787" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12788" max="12788" width="20.7265625" style="3" customWidth="1"/>
+    <col min="12789" max="12789" width="13" style="3" customWidth="1"/>
+    <col min="12790" max="12790" width="13.453125" style="3" customWidth="1"/>
+    <col min="12791" max="12791" width="18.26953125" style="3" customWidth="1"/>
+    <col min="12792" max="12792" width="20.81640625" style="3" customWidth="1"/>
+    <col min="12793" max="12793" width="22.26953125" style="3" customWidth="1"/>
+    <col min="12794" max="12794" width="26.453125" style="3" customWidth="1"/>
+    <col min="12795" max="12795" width="35.7265625" style="3" customWidth="1"/>
+    <col min="12796" max="12796" width="15.7265625" style="3" customWidth="1"/>
+    <col min="12797" max="12797" width="14.1796875" style="3" customWidth="1"/>
+    <col min="12798" max="12798" width="19.7265625" style="3" customWidth="1"/>
+    <col min="12799" max="12799" width="25.81640625" style="3" customWidth="1"/>
+    <col min="12800" max="12800" width="24.54296875" style="3" customWidth="1"/>
+    <col min="12801" max="12801" width="13.1796875" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="10.453125" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="26.81640625" style="3" customWidth="1"/>
+    <col min="12804" max="12804" width="22.54296875" style="3" customWidth="1"/>
+    <col min="12805" max="13034" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13035" max="13035" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13036" max="13036" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13037" max="13037" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13038" max="13038" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13039" max="13039" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13040" max="13040" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13041" max="13041" width="21.453125" style="3" customWidth="1"/>
+    <col min="13042" max="13042" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13043" max="13043" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13044" max="13044" width="20.7265625" style="3" customWidth="1"/>
+    <col min="13045" max="13045" width="13" style="3" customWidth="1"/>
+    <col min="13046" max="13046" width="13.453125" style="3" customWidth="1"/>
+    <col min="13047" max="13047" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13048" max="13048" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13049" max="13049" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13050" max="13050" width="26.453125" style="3" customWidth="1"/>
+    <col min="13051" max="13051" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13052" max="13052" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13053" max="13053" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13054" max="13054" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13055" max="13055" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13056" max="13056" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13057" max="13057" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="10.453125" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13060" max="13060" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13061" max="13290" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13291" max="13291" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13292" max="13292" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13293" max="13293" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13294" max="13294" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13295" max="13295" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13296" max="13296" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13297" max="13297" width="21.453125" style="3" customWidth="1"/>
+    <col min="13298" max="13298" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13299" max="13299" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13300" max="13300" width="20.7265625" style="3" customWidth="1"/>
+    <col min="13301" max="13301" width="13" style="3" customWidth="1"/>
+    <col min="13302" max="13302" width="13.453125" style="3" customWidth="1"/>
+    <col min="13303" max="13303" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13304" max="13304" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13305" max="13305" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13306" max="13306" width="26.453125" style="3" customWidth="1"/>
+    <col min="13307" max="13307" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13308" max="13308" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13309" max="13309" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13310" max="13310" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13311" max="13311" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13312" max="13312" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13313" max="13313" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="10.453125" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13316" max="13316" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13317" max="13546" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13547" max="13547" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13548" max="13548" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13549" max="13549" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13550" max="13550" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13551" max="13551" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13552" max="13552" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13553" max="13553" width="21.453125" style="3" customWidth="1"/>
+    <col min="13554" max="13554" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13555" max="13555" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13556" max="13556" width="20.7265625" style="3" customWidth="1"/>
+    <col min="13557" max="13557" width="13" style="3" customWidth="1"/>
+    <col min="13558" max="13558" width="13.453125" style="3" customWidth="1"/>
+    <col min="13559" max="13559" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13560" max="13560" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13561" max="13561" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13562" max="13562" width="26.453125" style="3" customWidth="1"/>
+    <col min="13563" max="13563" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13564" max="13564" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13565" max="13565" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13566" max="13566" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13567" max="13567" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13568" max="13568" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13569" max="13569" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="10.453125" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13572" max="13572" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13573" max="13802" width="9.1796875" style="3" customWidth="1"/>
+    <col min="13803" max="13803" width="27.7265625" style="3" customWidth="1"/>
+    <col min="13804" max="13804" width="42.7265625" style="3" customWidth="1"/>
+    <col min="13805" max="13805" width="40.7265625" style="3" customWidth="1"/>
+    <col min="13806" max="13806" width="25.7265625" style="3" customWidth="1"/>
+    <col min="13807" max="13807" width="30.7265625" style="3" customWidth="1"/>
+    <col min="13808" max="13808" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13809" max="13809" width="21.453125" style="3" customWidth="1"/>
+    <col min="13810" max="13810" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13811" max="13811" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13812" max="13812" width="20.7265625" style="3" customWidth="1"/>
+    <col min="13813" max="13813" width="13" style="3" customWidth="1"/>
+    <col min="13814" max="13814" width="13.453125" style="3" customWidth="1"/>
+    <col min="13815" max="13815" width="18.26953125" style="3" customWidth="1"/>
+    <col min="13816" max="13816" width="20.81640625" style="3" customWidth="1"/>
+    <col min="13817" max="13817" width="22.26953125" style="3" customWidth="1"/>
+    <col min="13818" max="13818" width="26.453125" style="3" customWidth="1"/>
+    <col min="13819" max="13819" width="35.7265625" style="3" customWidth="1"/>
+    <col min="13820" max="13820" width="15.7265625" style="3" customWidth="1"/>
+    <col min="13821" max="13821" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13822" max="13822" width="19.7265625" style="3" customWidth="1"/>
+    <col min="13823" max="13823" width="25.81640625" style="3" customWidth="1"/>
+    <col min="13824" max="13824" width="24.54296875" style="3" customWidth="1"/>
+    <col min="13825" max="13825" width="13.1796875" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="10.453125" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="26.81640625" style="3" customWidth="1"/>
+    <col min="13828" max="13828" width="22.54296875" style="3" customWidth="1"/>
+    <col min="13829" max="14058" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14059" max="14059" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14060" max="14060" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14061" max="14061" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14062" max="14062" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14063" max="14063" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14064" max="14064" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14065" max="14065" width="21.453125" style="3" customWidth="1"/>
+    <col min="14066" max="14066" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14067" max="14067" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14068" max="14068" width="20.7265625" style="3" customWidth="1"/>
+    <col min="14069" max="14069" width="13" style="3" customWidth="1"/>
+    <col min="14070" max="14070" width="13.453125" style="3" customWidth="1"/>
+    <col min="14071" max="14071" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14072" max="14072" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14073" max="14073" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14074" max="14074" width="26.453125" style="3" customWidth="1"/>
+    <col min="14075" max="14075" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14076" max="14076" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14077" max="14077" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14078" max="14078" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14079" max="14079" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14080" max="14080" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14081" max="14081" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="10.453125" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14084" max="14084" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14085" max="14314" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14315" max="14315" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14316" max="14316" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14317" max="14317" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14318" max="14318" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14319" max="14319" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14320" max="14320" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14321" max="14321" width="21.453125" style="3" customWidth="1"/>
+    <col min="14322" max="14322" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14323" max="14323" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14324" max="14324" width="20.7265625" style="3" customWidth="1"/>
+    <col min="14325" max="14325" width="13" style="3" customWidth="1"/>
+    <col min="14326" max="14326" width="13.453125" style="3" customWidth="1"/>
+    <col min="14327" max="14327" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14328" max="14328" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14329" max="14329" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14330" max="14330" width="26.453125" style="3" customWidth="1"/>
+    <col min="14331" max="14331" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14332" max="14332" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14333" max="14333" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14334" max="14334" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14335" max="14335" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14336" max="14336" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14337" max="14337" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="10.453125" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14340" max="14340" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14341" max="14570" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14571" max="14571" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14572" max="14572" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14573" max="14573" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14574" max="14574" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14575" max="14575" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14576" max="14576" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14577" max="14577" width="21.453125" style="3" customWidth="1"/>
+    <col min="14578" max="14578" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14579" max="14579" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14580" max="14580" width="20.7265625" style="3" customWidth="1"/>
+    <col min="14581" max="14581" width="13" style="3" customWidth="1"/>
+    <col min="14582" max="14582" width="13.453125" style="3" customWidth="1"/>
+    <col min="14583" max="14583" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14584" max="14584" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14585" max="14585" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14586" max="14586" width="26.453125" style="3" customWidth="1"/>
+    <col min="14587" max="14587" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14588" max="14588" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14589" max="14589" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14590" max="14590" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14591" max="14591" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14592" max="14592" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14593" max="14593" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="10.453125" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14596" max="14596" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14597" max="14826" width="9.1796875" style="3" customWidth="1"/>
+    <col min="14827" max="14827" width="27.7265625" style="3" customWidth="1"/>
+    <col min="14828" max="14828" width="42.7265625" style="3" customWidth="1"/>
+    <col min="14829" max="14829" width="40.7265625" style="3" customWidth="1"/>
+    <col min="14830" max="14830" width="25.7265625" style="3" customWidth="1"/>
+    <col min="14831" max="14831" width="30.7265625" style="3" customWidth="1"/>
+    <col min="14832" max="14832" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14833" max="14833" width="21.453125" style="3" customWidth="1"/>
+    <col min="14834" max="14834" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14835" max="14835" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14836" max="14836" width="20.7265625" style="3" customWidth="1"/>
+    <col min="14837" max="14837" width="13" style="3" customWidth="1"/>
+    <col min="14838" max="14838" width="13.453125" style="3" customWidth="1"/>
+    <col min="14839" max="14839" width="18.26953125" style="3" customWidth="1"/>
+    <col min="14840" max="14840" width="20.81640625" style="3" customWidth="1"/>
+    <col min="14841" max="14841" width="22.26953125" style="3" customWidth="1"/>
+    <col min="14842" max="14842" width="26.453125" style="3" customWidth="1"/>
+    <col min="14843" max="14843" width="35.7265625" style="3" customWidth="1"/>
+    <col min="14844" max="14844" width="15.7265625" style="3" customWidth="1"/>
+    <col min="14845" max="14845" width="14.1796875" style="3" customWidth="1"/>
+    <col min="14846" max="14846" width="19.7265625" style="3" customWidth="1"/>
+    <col min="14847" max="14847" width="25.81640625" style="3" customWidth="1"/>
+    <col min="14848" max="14848" width="24.54296875" style="3" customWidth="1"/>
+    <col min="14849" max="14849" width="13.1796875" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="10.453125" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="26.81640625" style="3" customWidth="1"/>
+    <col min="14852" max="14852" width="22.54296875" style="3" customWidth="1"/>
+    <col min="14853" max="15082" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15083" max="15083" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15084" max="15084" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15085" max="15085" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15086" max="15086" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15087" max="15087" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15088" max="15088" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15089" max="15089" width="21.453125" style="3" customWidth="1"/>
+    <col min="15090" max="15090" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15091" max="15091" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15092" max="15092" width="20.7265625" style="3" customWidth="1"/>
+    <col min="15093" max="15093" width="13" style="3" customWidth="1"/>
+    <col min="15094" max="15094" width="13.453125" style="3" customWidth="1"/>
+    <col min="15095" max="15095" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15096" max="15096" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15097" max="15097" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15098" max="15098" width="26.453125" style="3" customWidth="1"/>
+    <col min="15099" max="15099" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15100" max="15100" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15101" max="15101" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15102" max="15102" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15103" max="15103" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15104" max="15104" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15105" max="15105" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="10.453125" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15108" max="15108" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15109" max="15338" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15339" max="15339" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15340" max="15340" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15341" max="15341" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15342" max="15342" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15343" max="15343" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15344" max="15344" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15345" max="15345" width="21.453125" style="3" customWidth="1"/>
+    <col min="15346" max="15346" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15347" max="15347" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15348" max="15348" width="20.7265625" style="3" customWidth="1"/>
+    <col min="15349" max="15349" width="13" style="3" customWidth="1"/>
+    <col min="15350" max="15350" width="13.453125" style="3" customWidth="1"/>
+    <col min="15351" max="15351" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15352" max="15352" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15353" max="15353" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15354" max="15354" width="26.453125" style="3" customWidth="1"/>
+    <col min="15355" max="15355" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15356" max="15356" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15357" max="15357" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15358" max="15358" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15359" max="15359" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15360" max="15360" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15361" max="15361" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="10.453125" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15364" max="15364" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15365" max="15594" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15595" max="15595" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15596" max="15596" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15597" max="15597" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15598" max="15598" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15599" max="15599" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15600" max="15600" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15601" max="15601" width="21.453125" style="3" customWidth="1"/>
+    <col min="15602" max="15602" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15603" max="15603" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15604" max="15604" width="20.7265625" style="3" customWidth="1"/>
+    <col min="15605" max="15605" width="13" style="3" customWidth="1"/>
+    <col min="15606" max="15606" width="13.453125" style="3" customWidth="1"/>
+    <col min="15607" max="15607" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15608" max="15608" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15609" max="15609" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15610" max="15610" width="26.453125" style="3" customWidth="1"/>
+    <col min="15611" max="15611" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15612" max="15612" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15613" max="15613" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15614" max="15614" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15615" max="15615" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15616" max="15616" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15617" max="15617" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="10.453125" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15620" max="15620" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15621" max="15850" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15851" max="15851" width="27.7265625" style="3" customWidth="1"/>
+    <col min="15852" max="15852" width="42.7265625" style="3" customWidth="1"/>
+    <col min="15853" max="15853" width="40.7265625" style="3" customWidth="1"/>
+    <col min="15854" max="15854" width="25.7265625" style="3" customWidth="1"/>
+    <col min="15855" max="15855" width="30.7265625" style="3" customWidth="1"/>
+    <col min="15856" max="15856" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15857" max="15857" width="21.453125" style="3" customWidth="1"/>
+    <col min="15858" max="15858" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15859" max="15859" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15860" max="15860" width="20.7265625" style="3" customWidth="1"/>
+    <col min="15861" max="15861" width="13" style="3" customWidth="1"/>
+    <col min="15862" max="15862" width="13.453125" style="3" customWidth="1"/>
+    <col min="15863" max="15863" width="18.26953125" style="3" customWidth="1"/>
+    <col min="15864" max="15864" width="20.81640625" style="3" customWidth="1"/>
+    <col min="15865" max="15865" width="22.26953125" style="3" customWidth="1"/>
+    <col min="15866" max="15866" width="26.453125" style="3" customWidth="1"/>
+    <col min="15867" max="15867" width="35.7265625" style="3" customWidth="1"/>
+    <col min="15868" max="15868" width="15.7265625" style="3" customWidth="1"/>
+    <col min="15869" max="15869" width="14.1796875" style="3" customWidth="1"/>
+    <col min="15870" max="15870" width="19.7265625" style="3" customWidth="1"/>
+    <col min="15871" max="15871" width="25.81640625" style="3" customWidth="1"/>
+    <col min="15872" max="15872" width="24.54296875" style="3" customWidth="1"/>
+    <col min="15873" max="15873" width="13.1796875" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="10.453125" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="26.81640625" style="3" customWidth="1"/>
+    <col min="15876" max="15876" width="22.54296875" style="3" customWidth="1"/>
+    <col min="15877" max="16106" width="9.1796875" style="3" customWidth="1"/>
+    <col min="16107" max="16107" width="27.7265625" style="3" customWidth="1"/>
+    <col min="16108" max="16108" width="42.7265625" style="3" customWidth="1"/>
+    <col min="16109" max="16109" width="40.7265625" style="3" customWidth="1"/>
+    <col min="16110" max="16110" width="25.7265625" style="3" customWidth="1"/>
+    <col min="16111" max="16111" width="30.7265625" style="3" customWidth="1"/>
+    <col min="16112" max="16112" width="15.7265625" style="3" customWidth="1"/>
+    <col min="16113" max="16113" width="21.453125" style="3" customWidth="1"/>
+    <col min="16114" max="16114" width="35.7265625" style="3" customWidth="1"/>
+    <col min="16115" max="16115" width="15.7265625" style="3" customWidth="1"/>
+    <col min="16116" max="16116" width="20.7265625" style="3" customWidth="1"/>
+    <col min="16117" max="16117" width="13" style="3" customWidth="1"/>
+    <col min="16118" max="16118" width="13.453125" style="3" customWidth="1"/>
+    <col min="16119" max="16119" width="18.26953125" style="3" customWidth="1"/>
+    <col min="16120" max="16120" width="20.81640625" style="3" customWidth="1"/>
+    <col min="16121" max="16121" width="22.26953125" style="3" customWidth="1"/>
+    <col min="16122" max="16122" width="26.453125" style="3" customWidth="1"/>
+    <col min="16123" max="16123" width="35.7265625" style="3" customWidth="1"/>
+    <col min="16124" max="16124" width="15.7265625" style="3" customWidth="1"/>
+    <col min="16125" max="16125" width="14.1796875" style="3" customWidth="1"/>
+    <col min="16126" max="16126" width="19.7265625" style="3" customWidth="1"/>
+    <col min="16127" max="16127" width="25.81640625" style="3" customWidth="1"/>
+    <col min="16128" max="16128" width="24.54296875" style="3" customWidth="1"/>
+    <col min="16129" max="16129" width="13.1796875" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="10.453125" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="26.81640625" style="3" customWidth="1"/>
+    <col min="16132" max="16132" width="22.54296875" style="3" customWidth="1"/>
+    <col min="16133" max="16384" width="9.1796875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.5">
+      <c r="A1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="54" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;L</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1239,1399 +4690,1399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13" thickTop="1">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>39431</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="11" t="str">
         <f t="shared" ref="B2:B33" si="0">TEXT(A2,"dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="C2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="14">
         <v>700</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="15">
         <v>1.99</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="16">
         <f t="shared" ref="H2:H33" si="1">G2*F2</f>
         <v>1393</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14">
+      <c r="A3" s="17">
         <v>39434</v>
       </c>
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="C3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="21">
         <v>85</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="22">
         <v>19.989999999999998</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="23">
         <f t="shared" si="1"/>
         <v>1699.1499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>39437</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="C4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="14">
         <v>62</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="15">
         <v>4.99</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="16">
         <f t="shared" si="1"/>
         <v>309.38</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14">
+      <c r="A5" s="17">
         <v>39440</v>
       </c>
-      <c r="B5" s="15" t="str">
+      <c r="B5" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="C5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="21">
         <v>58</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="22">
         <v>19.989999999999998</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="23">
         <f t="shared" si="1"/>
         <v>1159.4199999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>39443</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="C6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="14">
         <v>10</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="15">
         <v>4.99</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="16">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14">
+      <c r="A7" s="17">
         <v>39446</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="21">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18">
-        <v>19</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="G7" s="22">
         <v>2.99</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="23">
         <f t="shared" si="1"/>
         <v>56.81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
         <v>39449</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="C8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="14">
         <v>6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="15">
         <v>1.99</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="16">
         <f t="shared" si="1"/>
         <v>11.94</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14">
+      <c r="A9" s="17">
         <v>39452</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="C9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="21">
         <v>10</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="22">
         <v>4.99</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="23">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>39455</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="C10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="14">
         <v>39</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="15">
         <v>1.99</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>77.61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14">
+      <c r="A11" s="17">
         <v>39458</v>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="C11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="21">
         <v>1</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="22">
         <v>8.99</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="23">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="10">
         <v>39461</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="C12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="14">
         <v>80</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="15">
         <v>4.99</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="16">
         <f t="shared" si="1"/>
         <v>399.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14">
+      <c r="A13" s="17">
         <v>39464</v>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="C13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="21">
         <v>51</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="22">
         <v>1.99</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="23">
         <f t="shared" si="1"/>
         <v>101.49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>39467</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="C14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="14">
         <v>10</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="15">
         <v>19.989999999999998</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="16">
         <f t="shared" si="1"/>
         <v>199.89999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14">
+      <c r="A15" s="17">
         <v>39470</v>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="C15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="21">
         <v>15</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="22">
         <v>4.99</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="23">
         <f t="shared" si="1"/>
         <v>74.850000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="A16" s="10">
         <v>39473</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="C16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="14">
         <v>31</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="15">
         <v>125</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="16">
         <f t="shared" si="1"/>
         <v>3875</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14">
+      <c r="A17" s="17">
         <v>39476</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="C17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="21">
         <v>46</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="22">
         <v>15.99</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="23">
         <f t="shared" si="1"/>
         <v>735.54</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7">
+      <c r="A18" s="10">
         <v>39479</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="C18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="14">
         <v>61</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="15">
         <v>8.99</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="16">
         <f t="shared" si="1"/>
         <v>548.39</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14">
+      <c r="A19" s="17">
         <v>39482</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="C19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="21">
         <v>90</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="22">
         <v>8.99</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="23">
         <f t="shared" si="1"/>
         <v>809.1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7">
+      <c r="A20" s="10">
         <v>39485</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="C20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="14">
         <v>43</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="15">
         <v>19.989999999999998</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="16">
         <f t="shared" si="1"/>
         <v>859.56999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14">
+      <c r="A21" s="17">
         <v>39488</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="C21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="21">
         <v>32</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="22">
         <v>4.99</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="23">
         <f t="shared" si="1"/>
         <v>159.68</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22" s="10">
         <v>39491</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="C22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="14">
         <v>37</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="15">
         <v>1.29</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="16">
         <f t="shared" si="1"/>
         <v>47.730000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14">
+      <c r="A23" s="17">
         <v>39494</v>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="C23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="21">
         <v>26</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="22">
         <v>15.99</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="23">
         <f t="shared" si="1"/>
         <v>415.74</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24" s="10">
         <v>39497</v>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="C24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="14">
         <v>79</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="15">
         <v>8.99</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="16">
         <f t="shared" si="1"/>
         <v>710.21</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14">
+      <c r="A25" s="17">
         <v>39500</v>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="C25" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="21">
         <v>72</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="22">
         <v>15</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="23">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
+      <c r="A26" s="10">
         <v>39503</v>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="C26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="14">
         <v>27</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="15">
         <v>4.99</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="16">
         <f t="shared" si="1"/>
         <v>134.73000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14">
+      <c r="A27" s="17">
         <v>39506</v>
       </c>
-      <c r="B27" s="15" t="str">
+      <c r="B27" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="C27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="21">
         <v>5</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="22">
         <v>19.989999999999998</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="23">
         <f t="shared" si="1"/>
         <v>99.949999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7">
+      <c r="A28" s="10">
         <v>39509</v>
       </c>
-      <c r="B28" s="8" t="str">
+      <c r="B28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="C28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="14">
         <v>59</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="15">
         <v>4.99</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="16">
         <f t="shared" si="1"/>
         <v>294.41000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14">
+      <c r="A29" s="17">
         <v>39512</v>
       </c>
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="18">
+      <c r="C29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="21">
         <v>41</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="22">
         <v>1.99</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="23">
         <f t="shared" si="1"/>
         <v>81.59</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7">
+      <c r="A30" s="10">
         <v>39515</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="C30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="14">
         <v>85</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="15">
         <v>4.99</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="16">
         <f t="shared" si="1"/>
         <v>424.15000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14">
+      <c r="A31" s="17">
         <v>39518</v>
       </c>
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="18">
+      <c r="C31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="21">
         <v>61</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="22">
         <v>1.29</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="23">
         <f t="shared" si="1"/>
         <v>78.69</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
         <v>39521</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="C32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="14">
         <v>9</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="15">
         <v>8.99</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="16">
         <f t="shared" si="1"/>
         <v>80.91</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14">
+      <c r="A33" s="17">
         <v>39524</v>
       </c>
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="C33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="21">
         <v>52</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="22">
         <v>125</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="23">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>39527</v>
       </c>
-      <c r="B34" s="8" t="str">
-        <f t="shared" ref="B34:B50" si="2">TEXT(A34,"dddd")</f>
+      <c r="B34" s="11" t="str">
+        <f t="shared" ref="B34:B65" si="2">TEXT(A34,"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="C34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="14">
         <v>75</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="15">
         <v>4.99</v>
       </c>
-      <c r="H34" s="13">
-        <f t="shared" ref="H34:H50" si="3">G34*F34</f>
+      <c r="H34" s="16">
+        <f t="shared" ref="H34:H65" si="3">G34*F34</f>
         <v>374.25</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="14">
+      <c r="A35" s="17">
         <v>39530</v>
       </c>
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="C35" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="21">
         <v>97</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="22">
         <v>12.49</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="23">
         <f t="shared" si="3"/>
         <v>1211.53</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7">
+      <c r="A36" s="10">
         <v>39533</v>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="C36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="12">
+      <c r="D36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="14">
+        <v>86</v>
+      </c>
+      <c r="G36" s="15">
         <v>23.95</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="16">
         <f t="shared" si="3"/>
         <v>2059.6999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="14">
+      <c r="A37" s="17">
         <v>39536</v>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="C37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="21">
         <v>8</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="22">
         <v>275</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="23">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
+      <c r="A38" s="10">
         <v>39539</v>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="11">
+      <c r="C38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="14">
         <v>90</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="15">
         <v>1.29</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="16">
         <f t="shared" si="3"/>
         <v>116.10000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="14">
+      <c r="A39" s="17">
         <v>39542</v>
       </c>
-      <c r="B39" s="15" t="str">
+      <c r="B39" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="18">
+      <c r="C39" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="21">
         <v>33</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="22">
         <v>1.99</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="23">
         <f t="shared" si="3"/>
         <v>65.67</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7">
+      <c r="A40" s="10">
         <v>39545</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="C40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="14">
         <v>53</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="15">
         <v>19.989999999999998</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="16">
         <f t="shared" si="3"/>
         <v>1059.47</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="14">
+      <c r="A41" s="17">
         <v>39548</v>
       </c>
-      <c r="B41" s="15" t="str">
+      <c r="B41" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="18">
+      <c r="C41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="21">
         <v>25</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="22">
         <v>1.29</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="23">
         <f t="shared" si="3"/>
         <v>32.25</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7">
+      <c r="A42" s="10">
         <v>39551</v>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="C42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="14">
         <v>87</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="15">
         <v>4.99</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="16">
         <f t="shared" si="3"/>
         <v>434.13</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="14">
+      <c r="A43" s="17">
         <v>39554</v>
       </c>
-      <c r="B43" s="15" t="str">
+      <c r="B43" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="18">
+      <c r="C43" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="21">
         <v>95</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="22">
         <v>19.989999999999998</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="23">
         <f t="shared" si="3"/>
         <v>1899.05</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7">
+      <c r="A44" s="10">
         <v>39557</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="11">
+      <c r="C44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="14">
         <v>68</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="15">
         <v>4.99</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="16">
         <f t="shared" si="3"/>
         <v>339.32</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="14">
+      <c r="A45" s="17">
         <v>39560</v>
       </c>
-      <c r="B45" s="15" t="str">
+      <c r="B45" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="18">
+      <c r="C45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="21">
         <v>19</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="22">
         <v>4.99</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="23">
         <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7">
+      <c r="A46" s="10">
         <v>39563</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="11">
+      <c r="C46" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="14">
         <v>19</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="15">
         <v>5.99</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="16">
         <f t="shared" si="3"/>
         <v>113.81</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="14">
+      <c r="A47" s="17">
         <v>39566</v>
       </c>
-      <c r="B47" s="15" t="str">
+      <c r="B47" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="C47" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="21">
         <v>19</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="22">
         <v>5.99</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="23">
         <f t="shared" si="3"/>
         <v>113.81</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7">
+      <c r="A48" s="10">
         <v>39569</v>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B48" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="11">
+      <c r="C48" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="14">
         <v>19</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="15">
         <v>4.99</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="16">
         <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="14">
+      <c r="A49" s="17">
         <v>39572</v>
       </c>
-      <c r="B49" s="15" t="str">
+      <c r="B49" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="18">
+      <c r="C49" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="21">
         <v>19</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="22">
         <v>4.99</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="23">
         <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="21">
+      <c r="A50" s="24">
         <v>39575</v>
       </c>
-      <c r="B50" s="22" t="str">
+      <c r="B50" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="23">
+      <c r="C50" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="26">
         <v>19</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="28">
         <v>4.99</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="29">
         <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
